--- a/hw2_requirements.xlsx
+++ b/hw2_requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chixiang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A35FF-1A77-C24B-AC9E-C4974DA564DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A3CEE8-DE36-4E4D-B8A5-0C2940B548B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Extra note to TA</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>See the second picture in README. If it's not clear, please contact us.</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="194" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -552,6 +555,9 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1">
       <c r="A10" s="1" t="s">
